--- a/biology/Médecine/Test_de_Ruffier/Test_de_Ruffier.xlsx
+++ b/biology/Médecine/Test_de_Ruffier/Test_de_Ruffier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test de Ruffier ou test de Ruffier-Dickson est un test physique qui permet d'évaluer l'aptitude d'une personne à la pratique sportive. Ce test peut être, par exemple, pratiqué sous le contrôle d'un médecin afin d'obtenir un certificat médical de non contre-indication à une pratique sportive.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice cardiaque du médecin français James-Edward Ruffier (1875-1965) est présenté par Dickson dans un article de 1950 comme un moyen de contrôle médico-sportif[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice cardiaque du médecin français James-Edward Ruffier (1875-1965) est présenté par Dickson dans un article de 1950 comme un moyen de contrôle médico-sportif.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Déroulement du test de Ruffier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le test se déroule en trois étapes [2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le test se déroule en trois étapes  :
 après un repos (couché) de quelques minutes, une prise de pouls du sujet donne la valeur 
         p
         0
@@ -587,9 +603,11 @@
           <t>Exploitation des résultats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par commodité on utilise couramment l'indice de Ruffier[2]qui est 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par commodité on utilise couramment l'indice de Ruffierqui est 
           I
             r
         =
@@ -646,9 +664,11 @@
           <t>Variante : indice de Ruffier-Dickson</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice de Ruffier-Dickson[2] s'évalue grâce à un calcul différent de celui du Test de Ruffier : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice de Ruffier-Dickson s'évalue grâce à un calcul différent de celui du Test de Ruffier : 
           I
             d
         =
@@ -725,9 +745,11 @@
           <t>Remise en cause</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Michel Delore, octuple vainqueur de la SaintéLyon, journaliste sportif et auteur de multiples ouvrages consacrés à la course à pied, le test de Ruffier-Dickson est obsolète et ne se substitue pas à un test d’effort[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Michel Delore, octuple vainqueur de la SaintéLyon, journaliste sportif et auteur de multiples ouvrages consacrés à la course à pied, le test de Ruffier-Dickson est obsolète et ne se substitue pas à un test d’effort.
 </t>
         </is>
       </c>
